--- a/Testplan/Testplan .xlsx
+++ b/Testplan/Testplan .xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/761509/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/761509/Documents/GitHub/Eneco-QA-Assigment-Ruta/Testplan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FFE090C-13C3-934F-A519-F359AEC80444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498D0089-5DE8-4348-949A-B96261EDC3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44500" yWindow="440" windowWidth="28040" windowHeight="17440" xr2:uid="{5484DC15-F55C-5340-83E0-627713FB876A}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="34240" windowHeight="21260" xr2:uid="{5484DC15-F55C-5340-83E0-627713FB876A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test plan" sheetId="1" r:id="rId1"/>
+    <sheet name="example " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,15 +36,128 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Key Components of the Test Plan</t>
+  </si>
+  <si>
+    <r>
+      <t>Objective</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: Define the purpose of the test plan and the scope of the integration </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Feature Description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: Provide a brief overview of the payment gateway and its functionalities </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing Scope </t>
+  </si>
+  <si>
+    <t>Functional Testing</t>
+  </si>
+  <si>
+    <t>Integration Testing</t>
+  </si>
+  <si>
+    <t>Security Testing</t>
+  </si>
+  <si>
+    <t>Performance Testing</t>
+  </si>
+  <si>
+    <t>Usability Testing</t>
+  </si>
+  <si>
+    <t>Compliance Testing</t>
+  </si>
+  <si>
+    <t>Introduction ( more see example)</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Functional Test Cases</t>
+  </si>
+  <si>
+    <t>Integration Test Cases</t>
+  </si>
+  <si>
+    <t>Security Test Cases</t>
+  </si>
+  <si>
+    <t>Performance Test Cases</t>
+  </si>
+  <si>
+    <t>Usability Test Cases</t>
+  </si>
+  <si>
+    <t>Compliance Test Cases</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF424242"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF424242"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF424242"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF424242"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,8 +180,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,9 +521,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804AF033-DF46-E646-9FD4-104C2615C957}">
+  <dimension ref="A2:A25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="116" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036C2E40-3628-0A41-B8FB-C4F36F016842}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/Testplan/Testplan .xlsx
+++ b/Testplan/Testplan .xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/761509/Documents/GitHub/Eneco-QA-Assigment-Ruta/Testplan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498D0089-5DE8-4348-949A-B96261EDC3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115F7B2B-C803-354B-877E-163F62E89CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="920" windowWidth="34240" windowHeight="21260" xr2:uid="{5484DC15-F55C-5340-83E0-627713FB876A}"/>
+    <workbookView xWindow="-38260" yWindow="-2240" windowWidth="38100" windowHeight="20800" activeTab="2" xr2:uid="{5484DC15-F55C-5340-83E0-627713FB876A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test plan" sheetId="1" r:id="rId1"/>
-    <sheet name="example " sheetId="2" r:id="rId2"/>
+    <sheet name="Key Componets of the Test Plan" sheetId="1" r:id="rId1"/>
+    <sheet name="tescases incl priority " sheetId="2" r:id="rId2"/>
+    <sheet name="Prioritization" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="117">
   <si>
     <t>Key Components of the Test Plan</t>
   </si>
@@ -113,13 +114,1206 @@
   </si>
   <si>
     <t>Compliance Test Cases</t>
+  </si>
+  <si>
+    <t>Test Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup </t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Test Execution</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Responsibilities</t>
+  </si>
+  <si>
+    <t>Reporting</t>
+  </si>
+  <si>
+    <t>Aligning with Project Objectives</t>
+  </si>
+  <si>
+    <t>Handling Changes in Requirements</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>The objective of this test plan is to ensure the successful integration of the XYZ Payment Gateway into the existing e-commerce platform. This integration aims to provide users with a secure, reliable, and seamless payment experience. The scope of the integration includes validating the functionality, security, performance, and usability of the payment gateway within the e-commerce platform. The testing will cover various payment methods, including credit cards, debit cards, and digital wallets, ensuring compliance with industry standards and regulations.</t>
+  </si>
+  <si>
+    <t>Feature Description</t>
+  </si>
+  <si>
+    <t>The XYZ Payment Gateway is a third-party service that facilitates online transactions by securely processing payments between customers and merchants. Key functionalities of the XYZ Payment Gateway include:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Payment Processing</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Supports multiple payment methods such as credit cards, debit cards, and digital wallets.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Compliance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Adheres to industry standards such as PCI DSS to ensure secure handling of payment data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Transaction Management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Provides real-time transaction status updates and detailed transaction history.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Security Features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Implements advanced security measures, including encryption and fraud detection, to protect sensitive payment information.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Refund Processing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Allows merchants to process full or partial refunds for transactions.</t>
+    </r>
+  </si>
+  <si>
+    <t>Navigate to the checkout page.</t>
+  </si>
+  <si>
+    <t>Enter valid credit card details.</t>
+  </si>
+  <si>
+    <t>Submit the payment.</t>
+  </si>
+  <si>
+    <t>1. Verify Successful Payment Processing</t>
+  </si>
+  <si>
+    <t>2.Test Different Payment Methods</t>
+  </si>
+  <si>
+    <t>Submit the payment for each method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select different payment methods (credit card, PayPal ) ( will be testein 3 testcases) </t>
+  </si>
+  <si>
+    <t>1.Ensure Data Synchronization</t>
+  </si>
+  <si>
+    <t>Process a payment.</t>
+  </si>
+  <si>
+    <t>Check the transaction history in both the e-commerce platform and the payment gateway.</t>
+  </si>
+  <si>
+    <t>Trigger an API call for payment processing.</t>
+  </si>
+  <si>
+    <t>Verify the API response</t>
+  </si>
+  <si>
+    <t>2.Test API Calls and Responses</t>
+  </si>
+  <si>
+    <t>Monitor the data transmission.</t>
+  </si>
+  <si>
+    <t>1. Test Encryption of Payment Data</t>
+  </si>
+  <si>
+    <t>Steps:</t>
+  </si>
+  <si>
+    <t>Attempt to access payment functionalities with different user roles.</t>
+  </si>
+  <si>
+    <t>Simulate a high number of concurrent transactions.</t>
+  </si>
+  <si>
+    <t>Gradually increase the transaction load until the system fails.</t>
+  </si>
+  <si>
+    <t>Navigate through the payment process as a user.</t>
+  </si>
+  <si>
+    <t>Trigger different error scenarios (e.g., invalid card details).</t>
+  </si>
+  <si>
+    <t>Review the payment gateway's security measures.</t>
+  </si>
+  <si>
+    <t>Review data handling practices</t>
+  </si>
+  <si>
+    <t>To ensure the test plan aligns with the overall project objectives:</t>
+  </si>
+  <si>
+    <t>Changes in requirements during the testing phase can be managed by:</t>
+  </si>
+  <si>
+    <r>
+      <t>Expected Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Error messages are clear and provide guidance on how to resolve the issue.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stakeholder Involvement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Engage stakeholders to understand their expectations and requirements.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Requirements Traceability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Map test cases to specific requirements to ensure coverage.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Regular Reviews</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Conduct regular reviews and updates to the test plan based on feedback.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Change Management Process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Establish a formal process for handling changes, including impact analysis and approval.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Flexible Test Plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Design the test plan to be adaptable to changes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Continuous Communication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Maintain open communication with stakeholders to quickly address changes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Regression Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Perform regression testing to ensure new changes do not adversely affect existing functionalities.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Priority : High </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ensure that a payment can be successfully processed using a valid credit card.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Expected Result: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Payment is processed successfully, and a confirmation message is displayed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reason</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Core functionality of the payment gateway</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reason</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ensures data protection and compliance with security standards.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Priority</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>High</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Verify that the payment gateway supports multiple payment methods.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Expected Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Payment is processed successfully for each method.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reason</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Verifies seamless integration between the e-commerce platform and the payment gateway.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Priority</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Medium</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Steps: </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Description: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Verify that transaction data is correctly synchronized between the e-commerce platform and the payment gateway</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Description: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ensure that API calls to the payment gateway are functioning correctly.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Expected Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Transaction data matches in both systems.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Expected Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> API response is as expected, and the payment is processed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Priority</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>High</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Expected Result: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Payment data is encrypted.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Validate User Authentication and Authorization</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Description: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Verify that only authorized users can access payment functionalities.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Expected Result: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Only authorized users can access payment functionalities.</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Load Testing with High Transaction Volumes</t>
+  </si>
+  <si>
+    <r>
+      <t>Reason</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Evaluates the performance under expected load conditions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Priority</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Medium</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Expected Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Payment gateway handles the load without performance degradation.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Stress Testing to Identify Breaking Points</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Identify the breaking points of the payment gateway under extreme conditions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Expected Result: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Identify the maximum load the system can handle</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Evaluate the performance of the payment gateway under high transaction volumes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Description: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ensure that payment data is encrypted during transmission.</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Test the Payment Flow from a User's Perspective</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Priority</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Low</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reason</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ensures a smooth and intuitive payment process for users.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Description: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ensure the payment process is intuitive and user-friendly</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Expected Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Payment process is smooth and easy to understand.</t>
+    </r>
+  </si>
+  <si>
+    <t>2.Validate the Clarity of Error Messages</t>
+  </si>
+  <si>
+    <t>1.Verify Compliance with PCI DSS Standards</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ensure that the payment gateway complies with PCI DSS standards.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Description: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ensure that error messages are clear and helpful.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Expected Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Payment gateway meets PCI DSS requirements.</t>
+    </r>
+  </si>
+  <si>
+    <t>2.Ensure GDPR Compliance for User Data</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Verify that the payment gateway handles user data in compliance with GDPR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Expected Result: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Payment gateway complies with GDPR requirements</t>
+    </r>
+  </si>
+  <si>
+    <t>Criteria for Prioritization:</t>
+  </si>
+  <si>
+    <r>
+      <t>Critical Functionality</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Prioritize test cases that cover the core functionalities of the payment gateway, such as payment processing and transaction management.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Security</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>: High-priority tests should include security-related test cases to ensure data protection and compliance with standards.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Integration Points</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Focus on integration test cases to verify seamless data flow between the e-commerce platform and the payment gateway.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>User Experience</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Usability test cases should be prioritized to ensure a smooth and intuitive payment process for users.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Performance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Performance test cases should be prioritized to ensure the system can handle expected loads.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,12 +1327,6 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FF424242"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
@@ -155,6 +1343,63 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color rgb="FF424242"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF424242"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF424242"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF424242"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF424242"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF424242"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF424242"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF424242"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF424242"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF424242"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -180,13 +1425,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,10 +1777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804AF033-DF46-E646-9FD4-104C2615C957}">
-  <dimension ref="A2:A25"/>
+  <dimension ref="A2:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,7 +1789,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -546,47 +1802,47 @@
       </c>
     </row>
     <row r="6" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -599,33 +1855,78 @@
       <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -635,14 +1936,603 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036C2E40-3628-0A41-B8FB-C4F36F016842}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="195.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A58" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A59" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="11"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A75" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A76" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="11"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A88" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A91" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A92" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="11"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A104" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A105" s="10"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A118" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A125" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5454CE15-6DF7-834B-A458-85EA1E0498CC}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="150.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>